--- a/Dropbox/MOXIE/MARKETING & SALES/Designs/solar-mobile-charger/spv-1040/Quotation.xlsx
+++ b/Dropbox/MOXIE/MARKETING & SALES/Designs/solar-mobile-charger/spv-1040/Quotation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="225" windowWidth="14355" windowHeight="6090"/>
@@ -13,12 +13,12 @@
     <sheet name="xl_DCF_History" sheetId="4" state="veryHidden" r:id="rId4"/>
     <sheet name="Classified as UnClassified" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -122,12 +122,6 @@
     <t>1kohm</t>
   </si>
   <si>
-    <t>I uf</t>
-  </si>
-  <si>
-    <t>1 kohm</t>
-  </si>
-  <si>
     <t>1 nf</t>
   </si>
   <si>
@@ -153,13 +147,22 @@
   </si>
   <si>
     <t>.25 W, 5%</t>
+  </si>
+  <si>
+    <t>1 uf</t>
+  </si>
+  <si>
+    <t>390 kohm</t>
+  </si>
+  <si>
+    <t>130 kohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,15 +265,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +363,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -395,7 +397,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,14 +572,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -588,12 +589,12 @@
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>22</v>
@@ -614,7 +615,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="10" customFormat="1">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -631,7 +632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="10" customFormat="1">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -639,16 +640,16 @@
         <v>26</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="10" customFormat="1">
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
@@ -656,16 +657,16 @@
         <v>29</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="10" customFormat="1">
       <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
@@ -673,157 +674,157 @@
         <v>30</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1">
+      <c r="A6" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1">
+      <c r="A8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="C9" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="6"/>
@@ -833,7 +834,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6"/>
@@ -842,7 +843,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="6"/>
@@ -850,29 +851,29 @@
       <c r="E16" s="14"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="B17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="14"/>
       <c r="F17" s="3"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="B18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="14"/>
       <c r="F18" s="3"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+    </row>
+    <row r="19" spans="1:17" s="10" customFormat="1">
       <c r="B19" s="11"/>
       <c r="D19" s="13"/>
       <c r="E19" s="14"/>
@@ -882,7 +883,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="10" customFormat="1">
       <c r="A20" s="17"/>
       <c r="B20" s="11"/>
       <c r="D20" s="13"/>
@@ -893,7 +894,7 @@
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="10" customFormat="1">
       <c r="B21" s="11"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
@@ -903,15 +904,15 @@
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="3" customFormat="1">
       <c r="D22" s="6"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="3" customFormat="1">
       <c r="D23" s="8"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="3" customFormat="1">
       <c r="D24" s="8"/>
       <c r="E24" s="14"/>
     </row>
@@ -925,12 +926,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -938,12 +939,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -951,14 +952,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -981,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -1019,7 +1020,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
